--- a/natmiOut/OldD7/LR-pairs_lrc2p/Il18-Il18r1.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Il18-Il18r1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.82593829902451</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H2">
-        <v>3.82593829902451</v>
+        <v>11.567068</v>
       </c>
       <c r="I2">
-        <v>0.1513973488350295</v>
+        <v>0.1340401150840085</v>
       </c>
       <c r="J2">
-        <v>0.1513973488350295</v>
+        <v>0.1340401150840085</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.256352782660779</v>
+        <v>0.024585</v>
       </c>
       <c r="N2">
-        <v>0.256352782660779</v>
+        <v>0.073755</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.08088989301323214</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.08088989301323216</v>
       </c>
       <c r="Q2">
-        <v>0.9807899292433806</v>
+        <v>0.09479212225999999</v>
       </c>
       <c r="R2">
-        <v>0.9807899292433806</v>
+        <v>0.8531291003399999</v>
       </c>
       <c r="S2">
-        <v>0.1513973488350295</v>
+        <v>0.01084249056862677</v>
       </c>
       <c r="T2">
-        <v>0.1513973488350295</v>
+        <v>0.01084249056862678</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,57 +590,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.4187799625445</v>
+        <v>3.855689333333333</v>
       </c>
       <c r="H3">
-        <v>19.4187799625445</v>
+        <v>11.567068</v>
       </c>
       <c r="I3">
-        <v>0.7684263503908634</v>
+        <v>0.1340401150840085</v>
       </c>
       <c r="J3">
-        <v>0.7684263503908634</v>
+        <v>0.1340401150840085</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.256352782660779</v>
+        <v>0.2793466666666666</v>
       </c>
       <c r="N3">
-        <v>0.256352782660779</v>
+        <v>0.8380399999999999</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.9191101069867678</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.9191101069867679</v>
       </c>
       <c r="Q3">
-        <v>4.97805827927566</v>
+        <v>1.077073962968889</v>
       </c>
       <c r="R3">
-        <v>4.97805827927566</v>
+        <v>9.693665666719998</v>
       </c>
       <c r="S3">
-        <v>0.7684263503908634</v>
+        <v>0.1231976245153817</v>
       </c>
       <c r="T3">
-        <v>0.7684263503908634</v>
+        <v>0.1231976245153818</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,241 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>22.00607133333333</v>
+      </c>
+      <c r="H4">
+        <v>66.018214</v>
+      </c>
+      <c r="I4">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="J4">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.024585</v>
+      </c>
+      <c r="N4">
+        <v>0.073755</v>
+      </c>
+      <c r="O4">
+        <v>0.08088989301323214</v>
+      </c>
+      <c r="P4">
+        <v>0.08088989301323216</v>
+      </c>
+      <c r="Q4">
+        <v>0.54101926373</v>
+      </c>
+      <c r="R4">
+        <v>4.86917337357</v>
+      </c>
+      <c r="S4">
+        <v>0.06188274009045197</v>
+      </c>
+      <c r="T4">
+        <v>0.06188274009045198</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>2.02612253230415</v>
-      </c>
-      <c r="H4">
-        <v>2.02612253230415</v>
-      </c>
-      <c r="I4">
-        <v>0.0801763007741071</v>
-      </c>
-      <c r="J4">
-        <v>0.0801763007741071</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>0.256352782660779</v>
-      </c>
-      <c r="N4">
-        <v>0.256352782660779</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.519402149167873</v>
-      </c>
-      <c r="R4">
-        <v>0.519402149167873</v>
-      </c>
-      <c r="S4">
-        <v>0.0801763007741071</v>
-      </c>
-      <c r="T4">
-        <v>0.0801763007741071</v>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>22.00607133333333</v>
+      </c>
+      <c r="H5">
+        <v>66.018214</v>
+      </c>
+      <c r="I5">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="J5">
+        <v>0.7650243780187601</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.2793466666666666</v>
+      </c>
+      <c r="N5">
+        <v>0.8380399999999999</v>
+      </c>
+      <c r="O5">
+        <v>0.9191101069867678</v>
+      </c>
+      <c r="P5">
+        <v>0.9191101069867679</v>
+      </c>
+      <c r="Q5">
+        <v>6.147322673395555</v>
+      </c>
+      <c r="R5">
+        <v>55.32590406055999</v>
+      </c>
+      <c r="S5">
+        <v>0.7031416379283081</v>
+      </c>
+      <c r="T5">
+        <v>0.7031416379283082</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2.903429</v>
+      </c>
+      <c r="H6">
+        <v>8.710287000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="J6">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.024585</v>
+      </c>
+      <c r="N6">
+        <v>0.073755</v>
+      </c>
+      <c r="O6">
+        <v>0.08088989301323214</v>
+      </c>
+      <c r="P6">
+        <v>0.08088989301323216</v>
+      </c>
+      <c r="Q6">
+        <v>0.071380801965</v>
+      </c>
+      <c r="R6">
+        <v>0.6424272176850001</v>
+      </c>
+      <c r="S6">
+        <v>0.008164662354153395</v>
+      </c>
+      <c r="T6">
+        <v>0.008164662354153397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2.903429</v>
+      </c>
+      <c r="H7">
+        <v>8.710287000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="J7">
+        <v>0.1009355068972313</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2793466666666666</v>
+      </c>
+      <c r="N7">
+        <v>0.8380399999999999</v>
+      </c>
+      <c r="O7">
+        <v>0.9191101069867678</v>
+      </c>
+      <c r="P7">
+        <v>0.9191101069867679</v>
+      </c>
+      <c r="Q7">
+        <v>0.8110632130533334</v>
+      </c>
+      <c r="R7">
+        <v>7.29956891748</v>
+      </c>
+      <c r="S7">
+        <v>0.09277084454307791</v>
+      </c>
+      <c r="T7">
+        <v>0.09277084454307792</v>
       </c>
     </row>
   </sheetData>
